--- a/vgk.xlsx
+++ b/vgk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\GitHub\amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F2DD68-9106-4D47-9AEC-39E439D6D7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00068B8-31E9-45A9-A835-B0435155B55A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="VGK-holdings (2011)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VGK-holdings (2011)'!$D$1:$D$1066</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VGK-holdings (2011)'!$D$1:$D$1065</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="3198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4260" uniqueCount="3198">
   <si>
     <t xml:space="preserve">Sector </t>
   </si>
@@ -10049,7 +10049,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1066"/>
+  <dimension ref="A1:D1065"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B1069" sqref="B1069"/>
@@ -11491,7 +11491,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>212</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>659</v>
       </c>
@@ -19403,5595 +19403,5581 @@
     </row>
     <row r="668" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="6" t="s">
-        <v>659</v>
+        <v>1338</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>660</v>
+        <v>1339</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D668" s="3" t="s">
-        <v>2435</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="669" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" s="6" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D669" s="3" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="670" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D670" s="3" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="671" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D671" s="3" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="672" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="6" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D672" s="3" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="673" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="6" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D673" s="3" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="674" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" s="6" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D674" s="3" t="s">
-        <v>2750</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="675" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="6" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D675" s="3" t="s">
-        <v>3184</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="676" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="6" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D676" s="3" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="677" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="6" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D677" s="3" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="678" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="6" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D678" s="3" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="679" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="6" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C679" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D679" s="3" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="680" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="6" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D680" s="3" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="681" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="6" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D681" s="3" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="682" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="6" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D682" s="3" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="683" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="6" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D683" s="3" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="684" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="6" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D684" s="3" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="685" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="6" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D685" s="3" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="686" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="6" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D686" s="3" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="687" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" s="6" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D687" s="3" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="688" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="6" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D688" s="3" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="689" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="6" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D689" s="3" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="690" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="6" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D690" s="3" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="691" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="6" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D691" s="3" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="692" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="6" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D692" s="3" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="693" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="6" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D693" s="3" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="694" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" s="6" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D694" s="3" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="695" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" s="6" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="696" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="6" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D696" s="3" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="697" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="6" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="C697" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D697" s="3" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="698" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="6" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D698" s="3" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="699" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" s="6" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D699" s="3" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="700" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" s="6" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D700" s="3" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="701" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" s="6" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D701" s="3" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="702" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" s="6" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D702" s="3" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="703" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" s="6" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D703" s="3" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" s="6" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D704" s="3" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="705" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="6" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D705" s="3" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="706" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" s="6" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D706" s="3" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="707" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" s="6" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="708" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="6" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="709" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="6" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D709" s="3" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="710" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" s="6" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D710" s="3" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="711" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="6" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D711" s="3" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="712" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" s="6" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D712" s="3" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="713" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" s="6" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C713" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D713" s="3" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="714" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" s="6" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D714" s="3" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="715" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="6" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D715" s="3" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="716" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="6" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D716" s="3" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="717" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" s="6" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="C717" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D717" s="3" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="718" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" s="6" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="C718" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D718" s="3" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="719" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" s="6" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D719" s="3" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="720" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" s="6" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="721" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" s="6" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C721" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D721" s="3" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="722" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" s="6" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="723" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" s="6" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D723" s="3" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="724" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" s="6" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="C724" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="725" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" s="6" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C725" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="726" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" s="6" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D726" s="3" t="s">
-        <v>2801</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="727" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" s="6" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C727" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D727" s="3" t="s">
-        <v>3185</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="728" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" s="6" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D728" s="3" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="729" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="6" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="730" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="6" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D730" s="3" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="731" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" s="6" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D731" s="3" t="s">
-        <v>2805</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="732" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" s="6" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>3186</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="733" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" s="6" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C733" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D733" s="3" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" s="4" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A734" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D734" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A735" s="6" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C735" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D733" s="3" t="s">
-        <v>2806</v>
-      </c>
-    </row>
-    <row r="734" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A734" s="6" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B734" s="3" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C734" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D734" s="3" t="s">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="735" spans="1:4" s="4" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A735" s="6" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B735" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C735" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D735" s="3" t="s">
-        <v>1471</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="736" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="6" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D736" s="3" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="737" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="6" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D737" s="3" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="738" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" s="6" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D738" s="3" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="739" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" s="6" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D739" s="3" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="740" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" s="6" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="741" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" s="6" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C741" s="3" t="s">
-        <v>30</v>
+        <v>1485</v>
+      </c>
+      <c r="C741" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D741" s="3" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="742" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" s="6" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C742" s="6" t="s">
-        <v>18</v>
+        <v>1487</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D742" s="3" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="743" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" s="6" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="C743" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D743" s="3" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="744" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" s="6" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="C744" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D744" s="3" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="745" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" s="6" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="C745" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D745" s="3" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="746" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" s="6" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D746" s="3" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="747" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" s="6" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D747" s="3" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="748" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" s="6" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D748" s="3" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="749" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" s="6" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D749" s="3" t="s">
-        <v>2820</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="750" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" s="6" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D750" s="3" t="s">
-        <v>3188</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="751" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" s="6" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="752" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" s="6" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D752" s="3" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="753" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="6" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D753" s="3" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="754" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" s="6" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D754" s="3" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="755" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" s="6" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D755" s="3" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="756" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" s="6" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D756" s="3" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="757" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" s="6" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D757" s="3" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="758" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" s="6" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D758" s="3" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="759" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="6" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D759" s="3" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="760" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" s="6" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D760" s="3" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="761" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="6" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D761" s="3" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="762" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" s="6" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C762" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D762" s="3" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="763" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" s="6" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="C763" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D763" s="3" t="s">
-        <v>2833</v>
-      </c>
-    </row>
-    <row r="764" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" s="4" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" s="6" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C764" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D764" s="3" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="765" spans="1:4" s="4" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" s="6" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D765" s="3" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="766" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="6" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="C766" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D766" s="3" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="767" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" s="6" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="C767" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D767" s="3" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="768" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" s="6" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D768" s="3" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="769" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" s="6" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D769" s="3" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="770" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" s="6" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C770" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D770" s="3" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="771" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" s="6" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D771" s="3" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="772" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" s="6" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D772" s="3" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="773" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" s="6" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D773" s="3" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="774" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" s="6" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D774" s="3" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="775" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" s="6" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D775" s="3" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="776" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" s="6" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="777" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" s="6" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="778" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" s="6" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="779" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" s="6" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D779" s="3" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="780" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" s="6" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="C780" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="781" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" s="6" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C781" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D781" s="3" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="782" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" s="6" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D782" s="3" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="783" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" s="6" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D783" s="3" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="784" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" s="6" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D784" s="3" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="785" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" s="6" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D785" s="3" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="786" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" s="6" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D786" s="3" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="787" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" s="6" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="C787" s="3" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="788" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" s="6" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>2858</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="789" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" s="6" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="C789" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>3189</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="790" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" s="6" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="C790" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="791" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" s="6" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C791" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="792" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" s="6" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="793" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="C793" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="794" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" s="6" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="C794" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="795" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" s="6" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="C795" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="796" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" s="6" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="C796" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D796" s="3" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="797" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" s="6" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>2866</v>
-      </c>
-    </row>
-    <row r="798" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" s="2" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" s="6" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="C798" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="799" spans="1:4" s="2" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" s="6" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="C799" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="800" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" s="6" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="801" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" s="6" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C801" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D801" s="3" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="802" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" s="6" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C802" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="803" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" s="6" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="C803" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="804" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" s="6" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="C804" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D804" s="3" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="805" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" s="6" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C805" s="3" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D805" s="3" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="806" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" s="6" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D806" s="3" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="807" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" s="6" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="C807" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D807" s="3" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="808" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" s="6" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="C808" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="809" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" s="6" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C809" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D809" s="3" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="810" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" s="6" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="C810" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="811" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" s="6" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="C811" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D811" s="3" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="812" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" s="6" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="C812" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="813" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" s="6" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="C813" s="3" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="814" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" s="6" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="C814" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D814" s="3" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="815" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" s="6" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="C815" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="816" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" s="6" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="C816" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="817" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" s="6" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="C817" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D817" s="3" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="818" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" s="6" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="C818" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="819" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" s="6" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="820" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" s="6" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="C820" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D820" s="3" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="821" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" s="6" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C821" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="822" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" s="6" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="C822" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="823" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" s="6" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="C823" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D823" s="3" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="824" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" s="6" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="C824" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D824" s="3" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="825" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" s="6" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="C825" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D825" s="3" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="826" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" s="6" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="C826" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D826" s="3" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="827" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" s="6" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="C827" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D827" s="3" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="828" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" s="6" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="C828" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D828" s="3" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="829" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" s="6" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="C829" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D829" s="3" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="830" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" s="6" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="C830" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D830" s="3" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="831" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" s="6" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="C831" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D831" s="3" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="832" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" s="6" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="C832" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D832" s="3" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="833" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" s="6" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="C833" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D833" s="3" t="s">
-        <v>2902</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="834" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" s="6" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="C834" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D834" s="3" t="s">
-        <v>3190</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="835" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" s="6" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="C835" s="3" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D835" s="3" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="836" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" s="6" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="C836" s="3" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D836" s="3" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="837" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" s="6" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C837" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D837" s="3" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="838" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" s="6" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="C838" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D838" s="3" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="839" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" s="6" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C839" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D839" s="3" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="840" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" s="6" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="C840" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D840" s="3" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="841" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" s="6" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="C841" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D841" s="3" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="842" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" s="6" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C842" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D842" s="3" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="843" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" s="6" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="C843" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D843" s="3" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="844" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" s="6" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="C844" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D844" s="3" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="845" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" s="6" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C845" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D845" s="3" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="846" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" s="6" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="C846" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D846" s="3" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="847" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" s="6" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="C847" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D847" s="3" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="848" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" s="6" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="C848" s="3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D848" s="3" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="849" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" s="6" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="C849" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D849" s="3" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="850" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" s="6" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="C850" s="3" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D850" s="3" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="851" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" s="6" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="C851" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D851" s="3" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="852" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" s="6" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="C852" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D852" s="3" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="853" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" s="6" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D853" s="3" t="s">
-        <v>2921</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="854" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854" s="6" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="C854" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D854" s="3" t="s">
-        <v>3191</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="855" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" s="6" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="C855" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D855" s="3" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="856" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" s="6" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="C856" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D856" s="3" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="857" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857" s="6" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="C857" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D857" s="3" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="858" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" s="6" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="C858" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D858" s="3" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="859" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" s="6" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C859" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D859" s="3" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="860" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" s="6" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C860" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D860" s="3" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="861" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" s="6" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="C861" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D861" s="3" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="862" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862" s="6" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="C862" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D862" s="3" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="863" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" s="6" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="C863" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D863" s="3" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="864" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" s="6" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="C864" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D864" s="3" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="865" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" s="6" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="C865" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D865" s="3" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="866" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866" s="6" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="C866" s="3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D866" s="3" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="867" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" s="6" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="C867" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D867" s="3" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="868" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868" s="6" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="C868" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D868" s="3" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="869" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" s="6" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="C869" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D869" s="3" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="870" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" s="6" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="C870" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D870" s="3" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="871" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" s="6" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="C871" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D871" s="3" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="872" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" s="6" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="C872" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D872" s="3" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="873" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" s="6" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="C873" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D873" s="3" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="874" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" s="6" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C874" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D874" s="3" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="875" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" s="6" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="C875" s="3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D875" s="3" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="876" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" s="6" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="C876" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D876" s="3" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="877" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" s="6" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="C877" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D877" s="3" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="878" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" s="6" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="C878" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D878" s="3" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="879" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" s="6" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="C879" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D879" s="3" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="880" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" s="6" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="C880" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D880" s="3" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="881" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" s="6" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="C881" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D881" s="3" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="882" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882" s="6" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="C882" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D882" s="3" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="883" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" s="6" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="C883" s="3" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D883" s="3" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="884" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" s="6" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="C884" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D884" s="3" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="885" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" s="6" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="C885" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D885" s="3" t="s">
-        <v>2952</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="886" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" s="6" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="C886" s="3" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D886" s="3" t="s">
-        <v>3192</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="887" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" s="6" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="C887" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D887" s="3" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="888" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" s="6" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="C888" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D888" s="3" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="889" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" s="6" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="C889" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D889" s="3" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="890" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" s="6" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="C890" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D890" s="3" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="891" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" s="6" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="C891" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D891" s="3" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="892" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" s="6" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="C892" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D892" s="3" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="893" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" s="6" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="C893" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D893" s="3" t="s">
-        <v>2959</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="894" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" s="6" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="C894" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D894" s="3" t="s">
-        <v>3193</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="895" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" s="6" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="C895" s="3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D895" s="3" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="896" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" s="6" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="C896" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D896" s="3" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="897" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" s="6" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="C897" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D897" s="3" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="898" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" s="6" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="C898" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D898" s="3" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="899" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" s="6" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="C899" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D899" s="3" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="900" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" s="6" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="C900" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D900" s="3" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="901" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" s="6" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="C901" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D901" s="3" t="s">
-        <v>2966</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="902" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" s="6" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="C902" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>3194</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="903" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" s="6" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="C903" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D903" s="3" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="904" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" s="6" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="C904" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D904" s="3" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="905" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" s="6" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="C905" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D905" s="3" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="906" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" s="6" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="C906" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D906" s="3" t="s">
-        <v>2970</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="907" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" s="6" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="C907" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D907" s="3" t="s">
-        <v>3195</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="908" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" s="6" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="C908" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D908" s="3" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="909" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" s="6" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="C909" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D909" s="3" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="910" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" s="6" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="C910" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D910" s="3" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="911" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" s="6" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="C911" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D911" s="3" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="912" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" s="6" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="C912" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D912" s="3" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="913" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" s="6" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="C913" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D913" s="3" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="914" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" s="6" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="C914" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D914" s="3" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="915" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" s="6" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="C915" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D915" s="3" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="916" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" s="6" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="C916" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D916" s="3" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="917" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" s="6" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="C917" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D917" s="3" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="918" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" s="6" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="C918" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D918" s="3" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="919" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" s="6" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="C919" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D919" s="3" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="920" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" s="6" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="C920" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D920" s="3" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="921" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" s="6" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="C921" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D921" s="3" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="922" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" s="6" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="C922" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D922" s="3" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="923" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" s="6" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="C923" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D923" s="3" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="924" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" s="6" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="C924" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D924" s="3" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="925" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" s="6" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="C925" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D925" s="3" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="926" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" s="6" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="C926" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D926" s="3" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="927" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" s="6" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="C927" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D927" s="3" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="928" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" s="6" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="C928" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D928" s="3" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="929" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" s="6" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="C929" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D929" s="3" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="930" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" s="6" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="C930" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D930" s="3" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="931" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" s="6" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="C931" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D931" s="3" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="932" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" s="6" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="C932" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D932" s="3" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="933" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" s="6" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="C933" s="3" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D933" s="3" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="934" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" s="6" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="C934" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D934" s="3" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="935" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" s="6" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="C935" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D935" s="3" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="936" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" s="6" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="C936" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D936" s="3" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="937" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" s="6" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="C937" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D937" s="3" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="938" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" s="6" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="C938" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D938" s="3" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="939" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" s="6" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="C939" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D939" s="3" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="940" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" s="6" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="C940" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D940" s="3" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="941" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" s="6" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="C941" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D941" s="3" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="942" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" s="6" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="C942" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D942" s="3" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="943" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" s="6" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="C943" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D943" s="3" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="944" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" s="6" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="C944" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D944" s="3" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="945" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" s="6" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="C945" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D945" s="3" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="946" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" s="6" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="C946" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D946" s="3" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="947" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" s="6" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="C947" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D947" s="3" t="s">
-        <v>3010</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="948" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" s="6" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="C948" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D948" s="3" t="s">
-        <v>3196</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="949" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949" s="6" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="C949" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D949" s="3" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="950" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" s="6" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="C950" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D950" s="3" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="951" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" s="6" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="C951" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D951" s="3" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="952" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" s="6" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="C952" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D952" s="3" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="953" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" s="6" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="C953" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D953" s="3" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="954" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" s="6" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="C954" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D954" s="3" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="955" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" s="6" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="C955" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D955" s="3" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="956" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" s="6" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="C956" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D956" s="3" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="957" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" s="6" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="C957" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D957" s="3" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="958" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" s="6" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="C958" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D958" s="3" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="959" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" s="6" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B959" s="3" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="C959" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D959" s="3" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="960" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" s="6" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="B960" s="3" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="C960" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D960" s="3" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="961" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" s="6" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="B961" s="3" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="C961" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D961" s="3" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="962" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" s="6" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="C962" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D962" s="3" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="963" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" s="6" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="B963" s="3" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="C963" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D963" s="3" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="964" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" s="6" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="B964" s="3" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="C964" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D964" s="3" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="965" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" s="6" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="B965" s="3" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="C965" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D965" s="3" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="966" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" s="6" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B966" s="3" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="C966" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D966" s="3" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="967" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" s="6" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B967" s="3" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="C967" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D967" s="3" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="968" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" s="6" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="B968" s="3" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="C968" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D968" s="3" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="969" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" s="6" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="B969" s="3" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="C969" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D969" s="3" t="s">
-        <v>3031</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="970" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" s="6" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="B970" s="3" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="C970" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>3197</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="971" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971" s="6" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="B971" s="3" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="C971" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="972" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" s="6" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="B972" s="3" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="C972" s="3" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="973" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973" s="6" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="B973" s="3" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="C973" s="3" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D973" s="3" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="974" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974" s="6" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="B974" s="3" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="C974" s="3" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D974" s="3" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="975" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" s="6" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="B975" s="3" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="C975" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D975" s="3" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="976" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" s="6" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="B976" s="3" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="C976" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D976" s="3" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="977" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" s="6" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="B977" s="3" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="C977" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D977" s="3" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="978" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978" s="6" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B978" s="3" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="C978" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D978" s="3" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="979" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" s="6" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="B979" s="3" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="C979" s="3" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D979" s="3" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="980" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" s="6" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="B980" s="3" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="C980" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D980" s="3" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="981" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" s="6" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="B981" s="3" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="C981" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D981" s="3" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="982" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" s="6" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="B982" s="3" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="C982" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D982" s="3" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="983" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983" s="6" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B983" s="3" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="C983" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D983" s="3" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="984" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" s="6" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="B984" s="3" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="C984" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D984" s="3" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="985" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" s="6" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="B985" s="3" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="C985" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D985" s="3" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="986" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" s="6" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="B986" s="3" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="C986" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D986" s="3" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="987" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987" s="6" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="B987" s="3" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="C987" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D987" s="3" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="988" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988" s="6" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="B988" s="3" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="C988" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D988" s="3" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="989" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989" s="6" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="B989" s="3" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="C989" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D989" s="3" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="990" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990" s="6" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="B990" s="3" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="C990" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D990" s="3" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="991" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991" s="6" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="B991" s="3" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="C991" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D991" s="3" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="992" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992" s="6" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="B992" s="3" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="C992" s="3" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D992" s="3" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="993" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993" s="6" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="B993" s="3" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="C993" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D993" s="3" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="994" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" s="6" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="B994" s="3" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="C994" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D994" s="3" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="995" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995" s="6" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B995" s="3" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="C995" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D995" s="3" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="996" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" s="6" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="B996" s="3" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="C996" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D996" s="3" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="997" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" s="6" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B997" s="3" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C997" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D997" s="3" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="998" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" s="6" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B998" s="3" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C998" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D998" s="3" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="999" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999" s="6" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B999" s="3" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="C999" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D999" s="3" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1000" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="6" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B1000" s="3" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C1000" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D1000" s="3" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1001" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="6" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B1001" s="3" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C1001" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D1001" s="3" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="1002" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="6" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B1002" s="3" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C1002" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D1002" s="3" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="1003" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003" s="6" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B1003" s="3" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C1003" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D1003" s="3" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="1004" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="6" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B1004" s="3" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C1004" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1004" s="3" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="1005" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="6" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B1005" s="3" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C1005" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1005" s="3" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="1006" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006" s="6" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B1006" s="3" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C1006" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1006" s="3" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="1007" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007" s="6" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B1007" s="3" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C1007" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D1007" s="3" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="1008" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008" s="6" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B1008" s="3" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C1008" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D1008" s="3" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="1009" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009" s="6" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B1009" s="3" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1009" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D1009" s="3" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="1010" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010" s="6" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B1010" s="3" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C1010" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1010" s="3" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1011" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011" s="6" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B1011" s="3" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="C1011" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D1011" s="3" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1012" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012" s="6" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B1012" s="3" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C1012" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D1012" s="3" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="1013" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013" s="6" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="B1013" s="3" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="C1013" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D1013" s="3" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="1014" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014" s="6" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B1014" s="3" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="C1014" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D1014" s="3" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="1015" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015" s="6" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="B1015" s="3" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="C1015" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D1015" s="3" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="1016" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016" s="6" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="B1016" s="3" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="C1016" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1016" s="3" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="1017" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017" s="6" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="B1017" s="3" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="C1017" s="3" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D1017" s="3" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="1018" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018" s="6" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="B1018" s="3" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="C1018" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D1018" s="3" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="1019" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019" s="6" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="B1019" s="3" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="C1019" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1019" s="3" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="1020" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020" s="6" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="B1020" s="3" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="C1020" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D1020" s="3" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="1021" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" s="6" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="B1021" s="3" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="C1021" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D1021" s="3" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1022" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022" s="6" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="B1022" s="3" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="C1022" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D1022" s="3" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1023" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023" s="6" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="B1023" s="3" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="C1023" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D1023" s="3" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="1024" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024" s="6" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="B1024" s="3" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="C1024" s="3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D1024" s="3" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1025" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025" s="6" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="B1025" s="3" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="C1025" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D1025" s="3" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="1026" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026" s="6" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="B1026" s="3" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="C1026" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D1026" s="3" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="1027" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027" s="6" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="B1027" s="3" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="C1027" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1027" s="3" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="1028" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028" s="6" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="B1028" s="3" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="C1028" s="3" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D1028" s="3" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="1029" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029" s="6" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="B1029" s="3" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="C1029" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D1029" s="3" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="1030" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030" s="6" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="B1030" s="3" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="C1030" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D1030" s="3" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="1031" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031" s="6" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="B1031" s="3" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="C1031" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1031" s="3" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="1032" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032" s="6" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="B1032" s="3" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="C1032" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D1032" s="3" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="1033" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033" s="6" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="B1033" s="3" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="C1033" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D1033" s="3" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1034" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034" s="6" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="B1034" s="3" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="C1034" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D1034" s="3" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1035" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035" s="6" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="B1035" s="3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="C1035" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D1035" s="3" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1036" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036" s="6" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="B1036" s="3" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="C1036" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1036" s="3" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1037" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037" s="6" t="s">
-        <v>2074</v>
-      </c>
-      <c r="B1037" s="3" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C1037" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1037" s="3" t="s">
-        <v>3098</v>
+        <v>2076</v>
+      </c>
+      <c r="B1037" s="6" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1037" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1037" s="6" t="s">
+        <v>3099</v>
       </c>
     </row>
     <row r="1038" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038" s="6" t="s">
-        <v>2076</v>
-      </c>
-      <c r="B1038" s="6" t="s">
-        <v>2077</v>
-      </c>
-      <c r="C1038" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1038" s="6" t="s">
-        <v>3099</v>
+        <v>2078</v>
+      </c>
+      <c r="B1038" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1038" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1038" s="3" t="s">
+        <v>3100</v>
       </c>
     </row>
     <row r="1039" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039" s="6" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="B1039" s="3" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="C1039" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D1039" s="3" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="1040" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040" s="6" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="B1040" s="3" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="C1040" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D1040" s="3" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="1041" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1041" s="6" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="B1041" s="3" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="C1041" s="3" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D1041" s="3" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="1042" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042" s="6" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="B1042" s="3" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="C1042" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D1042" s="3" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1043" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043" s="6" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="B1043" s="3" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="C1043" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D1043" s="3" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1044" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044" s="6" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="B1044" s="3" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="C1044" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D1044" s="3" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="1045" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045" s="6" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="B1045" s="3" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="C1045" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D1045" s="3" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1046" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046" s="6" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="B1046" s="3" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="C1046" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D1046" s="3" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="1047" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047" s="6" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="B1047" s="3" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="C1047" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1047" s="3" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1048" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048" s="6" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="B1048" s="3" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="C1048" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D1048" s="3" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="1049" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049" s="6" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="B1049" s="3" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="C1049" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1049" s="3" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="1050" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1050" s="6" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="B1050" s="3" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="C1050" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D1050" s="3" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="1051" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051" s="6" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="B1051" s="3" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="C1051" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D1051" s="3" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="1052" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1052" s="6" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="B1052" s="3" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="C1052" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D1052" s="3" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="1053" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053" s="6" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="B1053" s="3" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="C1053" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1053" s="3" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="1054" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1054" s="6" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="B1054" s="3" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="C1054" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D1054" s="3" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="1055" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055" s="6" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="B1055" s="3" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="C1055" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D1055" s="3" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="1056" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056" s="6" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="B1056" s="3" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="C1056" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1056" s="3" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="1057" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057" s="6" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="B1057" s="3" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="C1057" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D1057" s="3" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="1058" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1058" s="6" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="B1058" s="3" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="C1058" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D1058" s="3" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="1059" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059" s="6" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="B1059" s="3" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="C1059" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D1059" s="3" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="1060" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1060" s="6" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="B1060" s="3" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="C1060" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1060" s="3" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="1061" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061" s="6" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="B1061" s="3" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="C1061" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1061" s="3" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="1062" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062" s="6" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="B1062" s="3" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="C1062" s="3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D1062" s="3" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="1063" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063" s="6" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="B1063" s="3" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="C1063" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D1063" s="3" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="1064" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1064" s="6" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="B1064" s="3" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="C1064" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D1064" s="3" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1065" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1065" s="6" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="B1065" s="3" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="C1065" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D1065" s="3" t="s">
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1066" s="6" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B1066" s="3" t="s">
-        <v>2133</v>
-      </c>
-      <c r="C1066" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1066" s="3" t="s">
         <v>3127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D1066" xr:uid="{B87C86CD-EBF7-48E8-805D-411059A2100B}">
+  <autoFilter ref="D1:D1065" xr:uid="{B87C86CD-EBF7-48E8-805D-411059A2100B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="BMW_DE"/>
+        <filter val="TIT_MI"/>
       </filters>
     </filterColumn>
   </autoFilter>
